--- a/Hardware/Xilinx/Pinout/EMC2-DP+TE0820+FM192_Pinout.xlsx
+++ b/Hardware/Xilinx/Pinout/EMC2-DP+TE0820+FM192_Pinout.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="653">
   <si>
     <t xml:space="preserve">EMC2-DP V2</t>
   </si>
@@ -1005,367 +1005,370 @@
     <t xml:space="preserve">B64_L14_N</t>
   </si>
   <si>
+    <t xml:space="preserve">TX (ADC1) (RX FPGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAD0N/J4-36/GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L18_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAD0P/J4-34/A1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L18_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAD1N/J4-35/GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L16_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tAD1P/J4-33/A2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L16_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA26_P/FMC1B-D26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L21_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN0 TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA26_N/FMC1B-D27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L21_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN0_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA16_N/FMC1C-G19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L22_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SDA (40PIN-HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA16_P/FMC1C-G18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L22_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO5 (40PIN-HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA27_P/FMC1A-C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L10_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA27_N/FMC1A-C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L10_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA24_P/FMC1D-H28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L19_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO21 (40PIN-HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA24_N/FMC1D-H29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L19_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO20 (40PIN-HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA28_P/FMC1D-H31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L20_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART0_RX (BX3100) (TX FPGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA28_N/FMC1D-H32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L20_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART0_TX (BX3100) (RX FPGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA32_N/FMC1D-H38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_T0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCCJTAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMS/JP1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_TMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDI/JP1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_TDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDO/JP1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_TDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCK/JP1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_TCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPDIFIN/J4-65/U1B-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B65_L16_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPDIFOUT/J4-67/U1B-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B65_L16_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENZRST#/U25-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_TX1/U6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B65_L7_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_TX2/U6-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B65_L7_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_TX3/U6-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B65_L15_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_RX1/U6-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B65_L15_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_RX2/U6-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L3_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_RX3/U6-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L3_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIeRST18#/U26-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L1_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSNT_M2C_L/FMC1D-H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L1_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK4/U7-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L2_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK3/U7-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L2_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK2/U7-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L11_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK1/U7-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L11_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA19_P/FMC1D-H22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L12_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO4 (40PIN-HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA19_N/FMC1D-H23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L12_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0_SDA (40PIN-HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tFMC_LA17_P/FMC1B-D20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B64_L13_P</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX (ADC2) (RX FPGA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tAD0N/J4-36/GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L18_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tAD0P/J4-34/A1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L18_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tAD1N/J4-35/GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L16_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tAD1P/J4-33/A2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L16_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA26_P/FMC1B-D26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L21_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN0 TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA26_N/FMC1B-D27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L21_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN0_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA16_N/FMC1C-G19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L22_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1_SDA (40PIN-HEADER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA16_P/FMC1C-G18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L22_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO5 (40PIN-HEADER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA27_P/FMC1A-C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L10_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA27_N/FMC1A-C27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L10_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA24_P/FMC1D-H28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L19_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO21 (40PIN-HEADER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA24_N/FMC1D-H29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L19_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO20 (40PIN-HEADER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA28_P/FMC1D-H31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L20_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART0_RX (BX3100) (TX FPGA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA28_N/FMC1D-H32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L20_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART0_TX (BX3100) (RX FPGA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA32_N/FMC1D-H38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_T0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCCJTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMS/JP1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_TMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDI/JP1-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_TDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDO/JP1-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_TDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCK/JP1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_TCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPDIFIN/J4-65/U1B-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B65_L16_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPDIFOUT/J4-67/U1B-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B65_L16_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENZRST#/U25-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS232_TX1/U6-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B65_L7_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS232_TX2/U6-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B65_L7_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS232_TX3/U6-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B65_L15_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS232_RX1/U6-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B65_L15_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS232_RX2/U6-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L3_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS232_RX3/U6-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L3_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIeRST18#/U26-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L1_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSNT_M2C_L/FMC1D-H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L1_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLK4/U7-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L2_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLK3/U7-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L2_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLK2/U7-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L11_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLK1/U7-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L11_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA19_P/FMC1D-H22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L12_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO4 (40PIN-HEADER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA19_N/FMC1D-H23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L12_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C0_SDA (40PIN-HEADER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tFMC_LA17_P/FMC1B-D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B64_L13_P</t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA17_N/FMC1B-D21</t>
@@ -2468,8 +2471,8 @@
   </sheetPr>
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K128" activeCellId="0" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7510,13 +7513,13 @@
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="25" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="L180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="18" t="s">
@@ -7533,14 +7536,14 @@
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I181" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L181" s="9"/>
     </row>
@@ -7573,7 +7576,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="18" t="s">
@@ -7590,20 +7593,20 @@
       </c>
       <c r="G183" s="9"/>
       <c r="H183" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I183" s="23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J183" s="9"/>
       <c r="K183" s="25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="18" t="s">
@@ -7620,20 +7623,20 @@
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I184" s="23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J184" s="9"/>
       <c r="K184" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="18" t="s">
@@ -7650,20 +7653,20 @@
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I185" s="23" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J185" s="9"/>
       <c r="K185" s="25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="18" t="s">
@@ -7680,14 +7683,14 @@
       </c>
       <c r="G186" s="9"/>
       <c r="H186" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I186" s="23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L186" s="9"/>
     </row>
@@ -7720,7 +7723,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="18" t="s">
@@ -7737,20 +7740,20 @@
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I188" s="23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J188" s="9"/>
       <c r="K188" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="18" t="s">
@@ -7767,20 +7770,20 @@
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I189" s="23" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J189" s="9"/>
       <c r="K189" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B190" s="9"/>
       <c r="C190" s="18" t="s">
@@ -7797,20 +7800,20 @@
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I190" s="23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L190" s="9"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="18" t="s">
@@ -7827,14 +7830,14 @@
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I191" s="23" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J191" s="9"/>
       <c r="K191" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L191" s="9"/>
     </row>
@@ -7867,7 +7870,7 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B193" s="9"/>
       <c r="C193" s="18" t="s">
@@ -7884,20 +7887,20 @@
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J193" s="9"/>
       <c r="K193" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B194" s="9"/>
       <c r="C194" s="18" t="s">
@@ -7914,20 +7917,20 @@
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I194" s="23" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J194" s="9"/>
       <c r="K194" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L194" s="9"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B195" s="9"/>
       <c r="C195" s="18" t="s">
@@ -7944,20 +7947,20 @@
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I195" s="23" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J195" s="9"/>
       <c r="K195" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L195" s="9"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="18" t="s">
@@ -7974,14 +7977,14 @@
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I196" s="23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J196" s="9"/>
       <c r="K196" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L196" s="9"/>
     </row>
@@ -8014,7 +8017,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B198" s="9"/>
       <c r="C198" s="18" t="s">
@@ -8031,20 +8034,20 @@
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I198" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J198" s="9"/>
       <c r="K198" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L198" s="9"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="18" t="s">
@@ -8061,20 +8064,20 @@
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I199" s="23" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J199" s="9"/>
       <c r="K199" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B200" s="9"/>
       <c r="C200" s="18" t="s">
@@ -8091,20 +8094,20 @@
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I200" s="23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J200" s="9"/>
       <c r="K200" s="25" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="18" t="s">
@@ -8121,20 +8124,20 @@
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I201" s="23" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J201" s="9"/>
       <c r="K201" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L201" s="9"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="18" t="s">
@@ -8151,24 +8154,24 @@
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L202" s="9"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D203" s="19" t="n">
         <v>2</v>
@@ -8177,25 +8180,25 @@
         <v>1</v>
       </c>
       <c r="F203" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J203" s="9"/>
       <c r="L203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D204" s="19" t="n">
         <v>4</v>
@@ -8204,14 +8207,14 @@
         <v>3</v>
       </c>
       <c r="F204" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I204" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J204" s="9"/>
       <c r="L204" s="9"/>
@@ -8222,7 +8225,7 @@
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D205" s="19" t="n">
         <v>6</v>
@@ -8231,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="F205" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="20" t="s">
@@ -8245,11 +8248,11 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D206" s="19" t="n">
         <v>8</v>
@@ -8258,25 +8261,25 @@
         <v>7</v>
       </c>
       <c r="F206" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I206" s="23" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J206" s="9"/>
       <c r="L206" s="9"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B207" s="9"/>
       <c r="C207" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D207" s="19" t="n">
         <v>10</v>
@@ -8285,14 +8288,14 @@
         <v>9</v>
       </c>
       <c r="F207" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I207" s="23" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J207" s="9"/>
       <c r="L207" s="9"/>
@@ -8303,7 +8306,7 @@
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D208" s="19" t="n">
         <v>12</v>
@@ -8312,7 +8315,7 @@
         <v>11</v>
       </c>
       <c r="F208" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="20" t="s">
@@ -8326,11 +8329,11 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D209" s="19" t="n">
         <v>14</v>
@@ -8339,25 +8342,25 @@
         <v>13</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="20" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I209" s="23" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J209" s="9"/>
       <c r="L209" s="9"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B210" s="9"/>
       <c r="C210" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D210" s="19" t="n">
         <v>16</v>
@@ -8366,14 +8369,14 @@
         <v>15</v>
       </c>
       <c r="F210" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I210" s="23" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J210" s="9"/>
       <c r="L210" s="9"/>
@@ -8384,7 +8387,7 @@
       </c>
       <c r="B211" s="9"/>
       <c r="C211" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D211" s="19" t="n">
         <v>18</v>
@@ -8393,7 +8396,7 @@
         <v>17</v>
       </c>
       <c r="F211" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="20" t="s">
@@ -8407,11 +8410,11 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D212" s="19" t="n">
         <v>20</v>
@@ -8420,25 +8423,25 @@
         <v>19</v>
       </c>
       <c r="F212" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="20" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I212" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J212" s="9"/>
       <c r="L212" s="9"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D213" s="19" t="n">
         <v>22</v>
@@ -8447,14 +8450,14 @@
         <v>21</v>
       </c>
       <c r="F213" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I213" s="23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J213" s="9"/>
       <c r="L213" s="9"/>
@@ -8465,7 +8468,7 @@
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D214" s="19" t="n">
         <v>24</v>
@@ -8474,7 +8477,7 @@
         <v>23</v>
       </c>
       <c r="F214" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="20" t="s">
@@ -8488,11 +8491,11 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D215" s="19" t="n">
         <v>26</v>
@@ -8501,28 +8504,28 @@
         <v>25</v>
       </c>
       <c r="F215" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I215" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D216" s="19" t="n">
         <v>28</v>
@@ -8531,18 +8534,18 @@
         <v>27</v>
       </c>
       <c r="F216" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I216" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J216" s="9"/>
       <c r="K216" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L216" s="9"/>
     </row>
@@ -8552,7 +8555,7 @@
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D217" s="19" t="n">
         <v>30</v>
@@ -8561,7 +8564,7 @@
         <v>29</v>
       </c>
       <c r="F217" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="20" t="s">
@@ -8575,11 +8578,11 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D218" s="19" t="n">
         <v>32</v>
@@ -8588,25 +8591,25 @@
         <v>31</v>
       </c>
       <c r="F218" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I218" s="23" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J218" s="9"/>
       <c r="L218" s="9"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B219" s="9"/>
       <c r="C219" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D219" s="19" t="n">
         <v>34</v>
@@ -8615,14 +8618,14 @@
         <v>33</v>
       </c>
       <c r="F219" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G219" s="9"/>
       <c r="H219" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I219" s="23" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J219" s="9"/>
       <c r="L219" s="9"/>
@@ -8633,7 +8636,7 @@
       </c>
       <c r="B220" s="9"/>
       <c r="C220" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D220" s="19" t="n">
         <v>36</v>
@@ -8642,7 +8645,7 @@
         <v>35</v>
       </c>
       <c r="F220" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G220" s="9"/>
       <c r="H220" s="20" t="s">
@@ -8656,11 +8659,11 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D221" s="19" t="n">
         <v>38</v>
@@ -8669,25 +8672,25 @@
         <v>37</v>
       </c>
       <c r="F221" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G221" s="9"/>
       <c r="H221" s="20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I221" s="23" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J221" s="9"/>
       <c r="L221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D222" s="19" t="n">
         <v>40</v>
@@ -8696,25 +8699,25 @@
         <v>39</v>
       </c>
       <c r="F222" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G222" s="9"/>
       <c r="H222" s="20" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I222" s="23" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J222" s="9"/>
       <c r="L222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B223" s="9"/>
       <c r="C223" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D223" s="19" t="n">
         <v>42</v>
@@ -8723,25 +8726,25 @@
         <v>41</v>
       </c>
       <c r="F223" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G223" s="9"/>
       <c r="H223" s="20" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I223" s="23" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J223" s="9"/>
       <c r="L223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D224" s="19" t="n">
         <v>44</v>
@@ -8750,14 +8753,14 @@
         <v>43</v>
       </c>
       <c r="F224" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G224" s="9"/>
       <c r="H224" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I224" s="23" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J224" s="9"/>
       <c r="L224" s="9"/>
@@ -8768,7 +8771,7 @@
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D225" s="19" t="n">
         <v>46</v>
@@ -8777,7 +8780,7 @@
         <v>45</v>
       </c>
       <c r="F225" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G225" s="9"/>
       <c r="H225" s="20" t="s">
@@ -8791,11 +8794,11 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D226" s="19" t="n">
         <v>48</v>
@@ -8804,28 +8807,28 @@
         <v>47</v>
       </c>
       <c r="F226" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G226" s="9"/>
       <c r="H226" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I226" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J226" s="9"/>
       <c r="K226" s="25" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L226" s="9"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D227" s="19" t="n">
         <v>50</v>
@@ -8834,28 +8837,28 @@
         <v>49</v>
       </c>
       <c r="F227" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G227" s="9"/>
       <c r="H227" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I227" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J227" s="9"/>
       <c r="K227" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L227" s="9"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D228" s="19" t="n">
         <v>52</v>
@@ -8864,25 +8867,25 @@
         <v>51</v>
       </c>
       <c r="F228" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G228" s="9"/>
       <c r="H228" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I228" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J228" s="9"/>
       <c r="L228" s="9"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B229" s="9"/>
       <c r="C229" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D229" s="19" t="n">
         <v>54</v>
@@ -8891,25 +8894,25 @@
         <v>53</v>
       </c>
       <c r="F229" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G229" s="9"/>
       <c r="H229" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I229" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J229" s="9"/>
       <c r="L229" s="9"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D230" s="19" t="n">
         <v>56</v>
@@ -8918,25 +8921,25 @@
         <v>55</v>
       </c>
       <c r="F230" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G230" s="9"/>
       <c r="H230" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I230" s="21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J230" s="9"/>
       <c r="L230" s="9"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D231" s="19" t="n">
         <v>58</v>
@@ -8945,25 +8948,25 @@
         <v>57</v>
       </c>
       <c r="F231" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G231" s="9"/>
       <c r="H231" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I231" s="23" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J231" s="9"/>
       <c r="L231" s="9"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D232" s="19" t="n">
         <v>60</v>
@@ -8972,25 +8975,25 @@
         <v>59</v>
       </c>
       <c r="F232" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G232" s="9"/>
       <c r="H232" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I232" s="23" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J232" s="9"/>
       <c r="L232" s="9"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B233" s="9"/>
       <c r="C233" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D233" s="19" t="n">
         <v>1</v>
@@ -8999,25 +9002,25 @@
         <v>2</v>
       </c>
       <c r="F233" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G233" s="9"/>
       <c r="H233" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I233" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J233" s="9"/>
       <c r="L233" s="9"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B234" s="9"/>
       <c r="C234" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D234" s="19" t="n">
         <v>3</v>
@@ -9026,14 +9029,14 @@
         <v>4</v>
       </c>
       <c r="F234" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G234" s="9"/>
       <c r="H234" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I234" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J234" s="9"/>
       <c r="L234" s="9"/>
@@ -9044,7 +9047,7 @@
       </c>
       <c r="B235" s="9"/>
       <c r="C235" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D235" s="19" t="n">
         <v>5</v>
@@ -9053,7 +9056,7 @@
         <v>6</v>
       </c>
       <c r="F235" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G235" s="9"/>
       <c r="H235" s="20" t="s">
@@ -9067,11 +9070,11 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B236" s="9"/>
       <c r="C236" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D236" s="19" t="n">
         <v>7</v>
@@ -9080,25 +9083,25 @@
         <v>8</v>
       </c>
       <c r="F236" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G236" s="9"/>
       <c r="H236" s="20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I236" s="23" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J236" s="9"/>
       <c r="L236" s="9"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D237" s="19" t="n">
         <v>9</v>
@@ -9107,14 +9110,14 @@
         <v>10</v>
       </c>
       <c r="F237" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G237" s="9"/>
       <c r="H237" s="20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I237" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J237" s="9"/>
       <c r="L237" s="9"/>
@@ -9125,7 +9128,7 @@
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D238" s="19" t="n">
         <v>11</v>
@@ -9134,7 +9137,7 @@
         <v>12</v>
       </c>
       <c r="F238" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G238" s="9"/>
       <c r="H238" s="20" t="s">
@@ -9148,11 +9151,11 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D239" s="19" t="n">
         <v>13</v>
@@ -9161,25 +9164,25 @@
         <v>14</v>
       </c>
       <c r="F239" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G239" s="9"/>
       <c r="H239" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I239" s="23" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J239" s="9"/>
       <c r="L239" s="9"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D240" s="19" t="n">
         <v>15</v>
@@ -9188,14 +9191,14 @@
         <v>16</v>
       </c>
       <c r="F240" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G240" s="9"/>
       <c r="H240" s="20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I240" s="23" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J240" s="9"/>
       <c r="L240" s="9"/>
@@ -9206,7 +9209,7 @@
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D241" s="19" t="n">
         <v>17</v>
@@ -9215,7 +9218,7 @@
         <v>18</v>
       </c>
       <c r="F241" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G241" s="9"/>
       <c r="H241" s="20" t="s">
@@ -9229,11 +9232,11 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D242" s="19" t="n">
         <v>19</v>
@@ -9242,25 +9245,25 @@
         <v>20</v>
       </c>
       <c r="F242" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G242" s="9"/>
       <c r="H242" s="20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I242" s="23" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J242" s="9"/>
       <c r="L242" s="9"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D243" s="19" t="n">
         <v>21</v>
@@ -9269,14 +9272,14 @@
         <v>22</v>
       </c>
       <c r="F243" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G243" s="9"/>
       <c r="H243" s="20" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I243" s="23" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J243" s="9"/>
       <c r="L243" s="9"/>
@@ -9287,7 +9290,7 @@
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D244" s="19" t="n">
         <v>23</v>
@@ -9296,7 +9299,7 @@
         <v>24</v>
       </c>
       <c r="F244" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G244" s="9"/>
       <c r="H244" s="20" t="s">
@@ -9310,11 +9313,11 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D245" s="19" t="n">
         <v>25</v>
@@ -9323,28 +9326,28 @@
         <v>26</v>
       </c>
       <c r="F245" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G245" s="9"/>
       <c r="H245" s="20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I245" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J245" s="9"/>
       <c r="K245" s="25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D246" s="19" t="n">
         <v>27</v>
@@ -9353,18 +9356,18 @@
         <v>28</v>
       </c>
       <c r="F246" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G246" s="9"/>
       <c r="H246" s="20" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I246" s="23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J246" s="9"/>
       <c r="K246" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L246" s="9"/>
     </row>
@@ -9374,7 +9377,7 @@
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D247" s="19" t="n">
         <v>29</v>
@@ -9383,7 +9386,7 @@
         <v>30</v>
       </c>
       <c r="F247" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G247" s="9"/>
       <c r="H247" s="20" t="s">
@@ -9397,11 +9400,11 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D248" s="19" t="n">
         <v>31</v>
@@ -9410,25 +9413,25 @@
         <v>32</v>
       </c>
       <c r="F248" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G248" s="9"/>
       <c r="H248" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I248" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J248" s="9"/>
       <c r="L248" s="9"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="24" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D249" s="19" t="n">
         <v>33</v>
@@ -9437,14 +9440,14 @@
         <v>34</v>
       </c>
       <c r="F249" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G249" s="9"/>
       <c r="H249" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I249" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J249" s="9"/>
       <c r="L249" s="9"/>
@@ -9455,7 +9458,7 @@
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D250" s="19" t="n">
         <v>35</v>
@@ -9464,7 +9467,7 @@
         <v>36</v>
       </c>
       <c r="F250" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G250" s="9"/>
       <c r="H250" s="20" t="s">
@@ -9478,11 +9481,11 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="30" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D251" s="19" t="n">
         <v>37</v>
@@ -9491,25 +9494,25 @@
         <v>38</v>
       </c>
       <c r="F251" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G251" s="9"/>
       <c r="H251" s="20" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I251" s="23" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J251" s="9"/>
       <c r="L251" s="9"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="30" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D252" s="19" t="n">
         <v>39</v>
@@ -9518,25 +9521,25 @@
         <v>40</v>
       </c>
       <c r="F252" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G252" s="9"/>
       <c r="H252" s="20" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I252" s="23" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J252" s="9"/>
       <c r="L252" s="9"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="30" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D253" s="19" t="n">
         <v>41</v>
@@ -9545,25 +9548,25 @@
         <v>42</v>
       </c>
       <c r="F253" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G253" s="9"/>
       <c r="H253" s="20" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I253" s="23" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J253" s="9"/>
       <c r="L253" s="9"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="30" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D254" s="19" t="n">
         <v>43</v>
@@ -9572,14 +9575,14 @@
         <v>44</v>
       </c>
       <c r="F254" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G254" s="9"/>
       <c r="H254" s="20" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I254" s="23" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J254" s="9"/>
       <c r="L254" s="9"/>
@@ -9590,7 +9593,7 @@
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D255" s="19" t="n">
         <v>45</v>
@@ -9599,7 +9602,7 @@
         <v>46</v>
       </c>
       <c r="F255" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G255" s="9"/>
       <c r="H255" s="20" t="s">
@@ -9613,11 +9616,11 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="30" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D256" s="19" t="n">
         <v>47</v>
@@ -9626,25 +9629,25 @@
         <v>48</v>
       </c>
       <c r="F256" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G256" s="9"/>
       <c r="H256" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I256" s="23" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J256" s="9"/>
       <c r="L256" s="9"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="30" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B257" s="9"/>
       <c r="C257" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D257" s="19" t="n">
         <v>49</v>
@@ -9653,25 +9656,25 @@
         <v>50</v>
       </c>
       <c r="F257" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G257" s="9"/>
       <c r="H257" s="20" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I257" s="23" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J257" s="9"/>
       <c r="L257" s="9"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="30" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B258" s="9"/>
       <c r="C258" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D258" s="19" t="n">
         <v>51</v>
@@ -9680,25 +9683,25 @@
         <v>52</v>
       </c>
       <c r="F258" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G258" s="9"/>
       <c r="H258" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I258" s="23" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J258" s="9"/>
       <c r="L258" s="9"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="30" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B259" s="9"/>
       <c r="C259" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D259" s="19" t="n">
         <v>53</v>
@@ -9707,14 +9710,14 @@
         <v>54</v>
       </c>
       <c r="F259" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G259" s="9"/>
       <c r="H259" s="20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I259" s="23" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J259" s="9"/>
       <c r="L259" s="9"/>
@@ -9725,7 +9728,7 @@
       </c>
       <c r="B260" s="9"/>
       <c r="C260" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D260" s="19" t="n">
         <v>55</v>
@@ -9734,7 +9737,7 @@
         <v>56</v>
       </c>
       <c r="F260" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G260" s="9"/>
       <c r="H260" s="20" t="s">
@@ -9748,11 +9751,11 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B261" s="9"/>
       <c r="C261" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D261" s="19" t="n">
         <v>57</v>
@@ -9761,25 +9764,25 @@
         <v>58</v>
       </c>
       <c r="F261" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G261" s="9"/>
       <c r="H261" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I261" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J261" s="9"/>
       <c r="L261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="30" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B262" s="9"/>
       <c r="C262" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D262" s="19" t="n">
         <v>59</v>
@@ -9788,14 +9791,14 @@
         <v>60</v>
       </c>
       <c r="F262" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G262" s="9"/>
       <c r="H262" s="27" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J262" s="9"/>
       <c r="L262" s="9"/>

--- a/Hardware/Xilinx/Pinout/EMC2-DP+TE0820+FM192_Pinout.xlsx
+++ b/Hardware/Xilinx/Pinout/EMC2-DP+TE0820+FM192_Pinout.xlsx
@@ -342,7 +342,7 @@
     <t xml:space="preserve">B66_L1_P</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_RTS (HL7800) (CTS FPGA)</t>
+    <t xml:space="preserve">UART0_RTS (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA13_N/FMC1B-D18</t>
@@ -591,7 +591,7 @@
     <t xml:space="preserve">B66_L17_N</t>
   </si>
   <si>
-    <t xml:space="preserve">UART1_RTS (HL7800) (CTS FPGA)</t>
+    <t xml:space="preserve">UART1_RTS (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA06_N/FMC1A-C11</t>
@@ -603,7 +603,7 @@
     <t xml:space="preserve">B66_L17_P</t>
   </si>
   <si>
-    <t xml:space="preserve">UART1_CTS (HL7800) (RTS FPGA)</t>
+    <t xml:space="preserve">UART1_CTS (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA05_P/FMC1B-D11</t>
@@ -627,7 +627,7 @@
     <t xml:space="preserve">B66_L15_N</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_RX (HL7800) (TX FPGA)</t>
+    <t xml:space="preserve">UART0_RX (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA07_P/FMC1D-H13</t>
@@ -663,7 +663,7 @@
     <t xml:space="preserve">B66_L5_P</t>
   </si>
   <si>
-    <t xml:space="preserve">UART1_TX (HL7800) (RX FPGA)</t>
+    <t xml:space="preserve">UART1_TX (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA10_N/FMC1A-C15</t>
@@ -675,7 +675,7 @@
     <t xml:space="preserve">B66_L5_N</t>
   </si>
   <si>
-    <t xml:space="preserve">UART1_RX (HL7800) (TX FPGA)</t>
+    <t xml:space="preserve">UART1_RX (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_CLK1_P/FMC1C-G2</t>
@@ -945,7 +945,7 @@
     <t xml:space="preserve">B64_L15_N</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_TX (HL7800) (RX FPGA)</t>
+    <t xml:space="preserve">UART0_TX (HL7800) </t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA09_N/FMC1B-D15</t>
@@ -957,7 +957,7 @@
     <t xml:space="preserve">B64_L15_P</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_CTS (HL7800) (RTS FPGA)</t>
+    <t xml:space="preserve">UART0_CTS (HL7800)</t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA20_N/FMC1C-G22</t>
@@ -1149,7 +1149,7 @@
     <t xml:space="preserve">B64_L20_P</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_RX (BX3100) (TX FPGA)</t>
+    <t xml:space="preserve">UART0_RX (BX3100)</t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA28_N/FMC1D-H32</t>
@@ -1161,7 +1161,7 @@
     <t xml:space="preserve">B64_L20_N</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_TX (BX3100) (RX FPGA)</t>
+    <t xml:space="preserve">UART0_TX (BX3100)</t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA32_N/FMC1D-H38</t>
@@ -1488,7 +1488,7 @@
     <t xml:space="preserve">B64_L5_P</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_CTS (BX3100) (RTS FPGA)</t>
+    <t xml:space="preserve">UART0_CTS (BX3100)</t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA29_N/FMC1C-G31</t>
@@ -1500,7 +1500,7 @@
     <t xml:space="preserve">B64_L5_N</t>
   </si>
   <si>
-    <t xml:space="preserve">UART0_RTS (BX3100) (CTS FPGA)</t>
+    <t xml:space="preserve">UART0_RTS (BX3100)</t>
   </si>
   <si>
     <t xml:space="preserve">tFMC_LA31_P/FMC1C-G33</t>
@@ -2471,8 +2471,8 @@
   </sheetPr>
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K128" activeCellId="0" sqref="K128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M193" activeCellId="0" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
